--- a/downloaded_files/CMPS303_Lecture-35533.xlsx
+++ b/downloaded_files/CMPS303_Lecture-35533.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -192,6 +192,15 @@
     <x:t>Abdelrahman Mohammed Shawki  Abdelsalam Mohammed Attman</x:t>
   </x:si>
   <x:si>
+    <x:t>4240027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمد مصباح عبدالسلام عبده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Mohamed Misbah abdelsalam Abdou</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220067</x:t>
   </x:si>
   <x:si>
@@ -226,6 +235,12 @@
   </x:si>
   <x:si>
     <x:t>Ali Mahmoud Ali Kamal Hassan Khafagy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمار عماد حمدى محمد عدس</x:t>
   </x:si>
   <x:si>
     <x:t>1240100</x:t>
@@ -569,7 +584,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E51" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -869,7 +884,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T49"/>
+  <x:dimension ref="A1:T51"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1534,7 +1549,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6656493403</x:v>
+        <x:v>45920.1213704861</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1566,7 +1581,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6656820602</x:v>
+        <x:v>45906.6656493403</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1598,7 +1613,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4197314468</x:v>
+        <x:v>45907.6656820602</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1630,7 +1645,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6664400463</x:v>
+        <x:v>45907.4197314468</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1662,7 +1677,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6701496875</x:v>
+        <x:v>45907.6664400463</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1690,11 +1705,9 @@
       <x:c r="C25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
+      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45916.6825238773</x:v>
+        <x:v>45920.0753043634</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1717,16 +1730,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="D26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6714037847</x:v>
+        <x:v>45907.6701496875</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1749,14 +1762,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
+      <x:c r="D27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s"/>
       <x:c r="E27" s="3">
-        <x:v>45907.6650737269</x:v>
+        <x:v>45916.6825238773</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1788,7 +1803,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.7013503472</x:v>
+        <x:v>45907.6714037847</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1816,11 +1831,9 @@
       <x:c r="C29" s="2" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
+      <x:c r="D29" s="2" t="s"/>
       <x:c r="E29" s="3">
-        <x:v>45907.4201239931</x:v>
+        <x:v>45907.6650737269</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1843,16 +1856,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="C30" s="2" t="s">
+      <x:c r="D30" s="2" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.4364569792</x:v>
+        <x:v>45907.7013503472</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1875,16 +1888,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="s">
+      <x:c r="D31" s="2" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4209305556</x:v>
+        <x:v>45907.4201239931</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1907,16 +1920,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="C32" s="2" t="s">
+      <x:c r="D32" s="2" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45909.4364569792</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1939,16 +1952,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="C33" s="2" t="s">
+      <x:c r="D33" s="2" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4194787384</x:v>
+        <x:v>45907.4209305556</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1971,16 +1984,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="C34" s="2" t="s">
+      <x:c r="D34" s="2" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4143820949</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2003,16 +2016,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="C35" s="2" t="s">
+      <x:c r="D35" s="2" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45907.4194787384</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2035,16 +2048,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="C36" s="2" t="s">
+      <x:c r="D36" s="2" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45907.4143820949</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2067,16 +2080,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="C37" s="2" t="s">
+      <x:c r="D37" s="2" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4200497338</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2099,16 +2112,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="C38" s="2" t="s">
+      <x:c r="D38" s="2" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6655503472</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2131,16 +2144,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="C39" s="2" t="s">
+      <x:c r="D39" s="2" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>116</x:v>
-      </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4190850347</x:v>
+        <x:v>45907.4200497338</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2163,16 +2176,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="C40" s="2" t="s">
+      <x:c r="D40" s="2" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="D40" s="2" t="s">
-        <x:v>119</x:v>
-      </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4143132292</x:v>
+        <x:v>45907.6655503472</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2195,16 +2208,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="C41" s="2" t="s">
+      <x:c r="D41" s="2" t="s">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="D41" s="2" t="s">
-        <x:v>122</x:v>
-      </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.4199854514</x:v>
+        <x:v>45907.4190850347</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2227,16 +2240,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="C42" s="2" t="s">
+      <x:c r="D42" s="2" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>125</x:v>
-      </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45907.4143132292</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2259,16 +2272,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="C43" s="2" t="s">
+      <x:c r="D43" s="2" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="D43" s="2" t="s">
-        <x:v>128</x:v>
-      </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6651647801</x:v>
+        <x:v>45907.4199854514</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2291,16 +2304,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
         <x:v>129</x:v>
       </x:c>
-      <x:c r="C44" s="2" t="s">
+      <x:c r="D44" s="2" t="s">
         <x:v>130</x:v>
       </x:c>
-      <x:c r="D44" s="2" t="s">
-        <x:v>131</x:v>
-      </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.6647167014</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2323,16 +2336,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="C45" s="2" t="s">
+      <x:c r="D45" s="2" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="D45" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6822388542</x:v>
+        <x:v>45907.6651647801</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2355,16 +2368,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
         <x:v>135</x:v>
       </x:c>
-      <x:c r="C46" s="2" t="s">
+      <x:c r="D46" s="2" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="D46" s="2" t="s">
-        <x:v>137</x:v>
-      </x:c>
       <x:c r="E46" s="3">
-        <x:v>45912.3188163194</x:v>
+        <x:v>45906.6647167014</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2387,16 +2400,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B47" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
         <x:v>138</x:v>
       </x:c>
-      <x:c r="C47" s="2" t="s">
+      <x:c r="D47" s="2" t="s">
         <x:v>139</x:v>
       </x:c>
-      <x:c r="D47" s="2" t="s">
-        <x:v>140</x:v>
-      </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45907.6822388542</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2419,16 +2432,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B48" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
         <x:v>141</x:v>
       </x:c>
-      <x:c r="C48" s="2" t="s">
+      <x:c r="D48" s="2" t="s">
         <x:v>142</x:v>
       </x:c>
-      <x:c r="D48" s="2" t="s">
-        <x:v>143</x:v>
-      </x:c>
       <x:c r="E48" s="3">
-        <x:v>45906.6647606134</x:v>
+        <x:v>45912.3188163194</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2451,14 +2464,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B49" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
         <x:v>144</x:v>
       </x:c>
-      <x:c r="C49" s="2" t="s">
+      <x:c r="D49" s="2" t="s">
         <x:v>145</x:v>
       </x:c>
-      <x:c r="D49" s="2" t="s"/>
       <x:c r="E49" s="3">
-        <x:v>45907.6661684375</x:v>
+        <x:v>45907.665069213</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2475,6 +2490,68 @@
       <x:c r="R49" s="2" t="s"/>
       <x:c r="S49" s="2" t="s"/>
       <x:c r="T49" s="2" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:20">
+      <x:c r="A50" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="D50" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="E50" s="3">
+        <x:v>45906.6647606134</x:v>
+      </x:c>
+      <x:c r="F50" s="2" t="s"/>
+      <x:c r="G50" s="2" t="s"/>
+      <x:c r="H50" s="2" t="s"/>
+      <x:c r="I50" s="2" t="s"/>
+      <x:c r="J50" s="2" t="s"/>
+      <x:c r="K50" s="2" t="s"/>
+      <x:c r="L50" s="2" t="s"/>
+      <x:c r="M50" s="2" t="s"/>
+      <x:c r="N50" s="2" t="s"/>
+      <x:c r="O50" s="2" t="s"/>
+      <x:c r="P50" s="2" t="s"/>
+      <x:c r="Q50" s="2" t="s"/>
+      <x:c r="R50" s="2" t="s"/>
+      <x:c r="S50" s="2" t="s"/>
+      <x:c r="T50" s="2" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:20">
+      <x:c r="A51" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B51" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="C51" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D51" s="2" t="s"/>
+      <x:c r="E51" s="3">
+        <x:v>45907.6661684375</x:v>
+      </x:c>
+      <x:c r="F51" s="2" t="s"/>
+      <x:c r="G51" s="2" t="s"/>
+      <x:c r="H51" s="2" t="s"/>
+      <x:c r="I51" s="2" t="s"/>
+      <x:c r="J51" s="2" t="s"/>
+      <x:c r="K51" s="2" t="s"/>
+      <x:c r="L51" s="2" t="s"/>
+      <x:c r="M51" s="2" t="s"/>
+      <x:c r="N51" s="2" t="s"/>
+      <x:c r="O51" s="2" t="s"/>
+      <x:c r="P51" s="2" t="s"/>
+      <x:c r="Q51" s="2" t="s"/>
+      <x:c r="R51" s="2" t="s"/>
+      <x:c r="S51" s="2" t="s"/>
+      <x:c r="T51" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS303_Lecture-35533.xlsx
+++ b/downloaded_files/CMPS303_Lecture-35533.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -226,6 +226,15 @@
   </x:si>
   <x:si>
     <x:t>Ali Khaled Mohamed Hamdy Mohamed Salem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230207</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على محمد سعيد عبدالعزيز محمد ثابت</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Mohamed Said Abdelaziz Mohamed Sabet</x:t>
   </x:si>
   <x:si>
     <x:t>1230069</x:t>
@@ -584,7 +593,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E51" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E52" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -884,7 +893,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T51"/>
+  <x:dimension ref="A1:T52"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1677,7 +1686,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6664400463</x:v>
+        <x:v>45922.4119309838</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1705,9 +1714,11 @@
       <x:c r="C25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s"/>
+      <x:c r="D25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45920.0753043634</x:v>
+        <x:v>45907.6664400463</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1730,16 +1741,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
+      <x:c r="D26" s="2" t="s"/>
       <x:c r="E26" s="3">
-        <x:v>45907.6701496875</x:v>
+        <x:v>45920.0753043634</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1771,7 +1780,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45916.6825238773</x:v>
+        <x:v>45907.6701496875</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1803,7 +1812,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6714037847</x:v>
+        <x:v>45916.6825238773</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1831,9 +1840,11 @@
       <x:c r="C29" s="2" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s"/>
+      <x:c r="D29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6650737269</x:v>
+        <x:v>45907.6714037847</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1856,16 +1867,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
         <x:v>88</x:v>
       </x:c>
+      <x:c r="D30" s="2" t="s"/>
       <x:c r="E30" s="3">
-        <x:v>45907.7013503472</x:v>
+        <x:v>45907.6650737269</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1897,7 +1906,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4201239931</x:v>
+        <x:v>45907.7013503472</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1929,7 +1938,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.4364569792</x:v>
+        <x:v>45907.4201239931</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1961,7 +1970,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4209305556</x:v>
+        <x:v>45909.4364569792</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1993,7 +2002,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45907.4209305556</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2025,7 +2034,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4194787384</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2057,7 +2066,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4143820949</x:v>
+        <x:v>45907.4194787384</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2089,7 +2098,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45907.4143820949</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2121,7 +2130,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2153,7 +2162,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4200497338</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2185,7 +2194,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6655503472</x:v>
+        <x:v>45907.4200497338</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2217,7 +2226,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.4190850347</x:v>
+        <x:v>45907.6655503472</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2249,7 +2258,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.4143132292</x:v>
+        <x:v>45907.4190850347</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2281,7 +2290,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4199854514</x:v>
+        <x:v>45907.4143132292</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2313,7 +2322,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45907.4199854514</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2345,7 +2354,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6651647801</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2377,7 +2386,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45906.6647167014</x:v>
+        <x:v>45907.6651647801</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2409,7 +2418,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6822388542</x:v>
+        <x:v>45906.6647167014</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2441,7 +2450,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45912.3188163194</x:v>
+        <x:v>45907.6822388542</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2473,7 +2482,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45912.3188163194</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2505,7 +2514,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45906.6647606134</x:v>
+        <x:v>45907.665069213</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2533,9 +2542,11 @@
       <x:c r="C51" s="2" t="s">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="D51" s="2" t="s"/>
+      <x:c r="D51" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
       <x:c r="E51" s="3">
-        <x:v>45907.6661684375</x:v>
+        <x:v>45906.6647606134</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2552,6 +2563,36 @@
       <x:c r="R51" s="2" t="s"/>
       <x:c r="S51" s="2" t="s"/>
       <x:c r="T51" s="2" t="s"/>
+    </x:row>
+    <x:row r="52" spans="1:20">
+      <x:c r="A52" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B52" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C52" s="2" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="D52" s="2" t="s"/>
+      <x:c r="E52" s="3">
+        <x:v>45907.6661684375</x:v>
+      </x:c>
+      <x:c r="F52" s="2" t="s"/>
+      <x:c r="G52" s="2" t="s"/>
+      <x:c r="H52" s="2" t="s"/>
+      <x:c r="I52" s="2" t="s"/>
+      <x:c r="J52" s="2" t="s"/>
+      <x:c r="K52" s="2" t="s"/>
+      <x:c r="L52" s="2" t="s"/>
+      <x:c r="M52" s="2" t="s"/>
+      <x:c r="N52" s="2" t="s"/>
+      <x:c r="O52" s="2" t="s"/>
+      <x:c r="P52" s="2" t="s"/>
+      <x:c r="Q52" s="2" t="s"/>
+      <x:c r="R52" s="2" t="s"/>
+      <x:c r="S52" s="2" t="s"/>
+      <x:c r="T52" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS303_Lecture-35533.xlsx
+++ b/downloaded_files/CMPS303_Lecture-35533.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -478,6 +478,12 @@
   </x:si>
   <x:si>
     <x:t>يوسف محمد بدر الدين حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240061</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد صلاح مصلحي</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -593,7 +599,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E52" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E53" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -893,7 +899,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T52"/>
+  <x:dimension ref="A1:T53"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2593,6 +2599,36 @@
       <x:c r="R52" s="2" t="s"/>
       <x:c r="S52" s="2" t="s"/>
       <x:c r="T52" s="2" t="s"/>
+    </x:row>
+    <x:row r="53" spans="1:20">
+      <x:c r="A53" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B53" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C53" s="2" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="D53" s="2" t="s"/>
+      <x:c r="E53" s="3">
+        <x:v>45926.4125992245</x:v>
+      </x:c>
+      <x:c r="F53" s="2" t="s"/>
+      <x:c r="G53" s="2" t="s"/>
+      <x:c r="H53" s="2" t="s"/>
+      <x:c r="I53" s="2" t="s"/>
+      <x:c r="J53" s="2" t="s"/>
+      <x:c r="K53" s="2" t="s"/>
+      <x:c r="L53" s="2" t="s"/>
+      <x:c r="M53" s="2" t="s"/>
+      <x:c r="N53" s="2" t="s"/>
+      <x:c r="O53" s="2" t="s"/>
+      <x:c r="P53" s="2" t="s"/>
+      <x:c r="Q53" s="2" t="s"/>
+      <x:c r="R53" s="2" t="s"/>
+      <x:c r="S53" s="2" t="s"/>
+      <x:c r="T53" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS303_Lecture-35533.xlsx
+++ b/downloaded_files/CMPS303_Lecture-35533.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -39,6 +39,15 @@
     <x:t>احمد بهجت سيد محمدعبدالفتاح</x:t>
   </x:si>
   <x:si>
+    <x:t>1240005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد خالد سعد محمود سلام</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ahmed khaled saad mahmoud</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220224</x:t>
   </x:si>
   <x:si>
@@ -66,15 +75,6 @@
     <x:t>Ans Sayed</x:t>
   </x:si>
   <x:si>
-    <x:t>1230294</x:t>
-  </x:si>
-  <x:si>
-    <x:t>انطون مجدي يعقوب نظير</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ANTON</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220038</x:t>
   </x:si>
   <x:si>
@@ -228,15 +228,6 @@
     <x:t>Ali Khaled Mohamed Hamdy Mohamed Salem</x:t>
   </x:si>
   <x:si>
-    <x:t>1230207</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على محمد سعيد عبدالعزيز محمد ثابت</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Mohamed Said Abdelaziz Mohamed Sabet</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230069</x:t>
   </x:si>
   <x:si>
@@ -261,15 +252,6 @@
     <x:t>Omar EL-syed Mohammed EL-kholy</x:t>
   </x:si>
   <x:si>
-    <x:t>1230217</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد قناوي محمود مصلح</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Mohamed Kenawi Mahmoud Mosleh</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230077</x:t>
   </x:si>
   <x:si>
@@ -438,15 +420,6 @@
     <x:t>Yahia Galal Ezzat Ibrahim</x:t>
   </x:si>
   <x:si>
-    <x:t>1240167</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف احمد السيد احمد الشلقاني</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef ahmed elsayed ahmed metwaley</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240393</x:t>
   </x:si>
   <x:si>
@@ -463,15 +436,6 @@
   </x:si>
   <x:si>
     <x:t>YOUSSEF EHAB SAMIR AFIFY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220212</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف باسم لمعي جندي جرجس</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Bassem Lamey Gindy</x:t>
   </x:si>
   <x:si>
     <x:t>4240060</x:t>
@@ -599,7 +563,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E53" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -899,7 +863,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T53"/>
+  <x:dimension ref="A1:T49"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -988,7 +952,7 @@
       </x:c>
       <x:c r="D2" s="2" t="s"/>
       <x:c r="E2" s="3">
-        <x:v>45907.8389292014</x:v>
+        <x:v>45927.6184551736</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -1020,7 +984,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.41445</x:v>
+        <x:v>45927.4153984954</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -1052,7 +1016,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45914.5686462963</x:v>
+        <x:v>45907.41445</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1084,7 +1048,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4202734144</x:v>
+        <x:v>45914.5686462963</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1116,7 +1080,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.5586840625</x:v>
+        <x:v>45907.4202734144</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1692,7 +1656,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45922.4119309838</x:v>
+        <x:v>45907.6664400463</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1720,11 +1684,9 @@
       <x:c r="C25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
+      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45907.6664400463</x:v>
+        <x:v>45920.0753043634</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1747,14 +1709,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="D26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s"/>
       <x:c r="E26" s="3">
-        <x:v>45920.0753043634</x:v>
+        <x:v>45907.6701496875</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1786,7 +1750,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6701496875</x:v>
+        <x:v>45907.6714037847</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1814,11 +1778,9 @@
       <x:c r="C28" s="2" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
+      <x:c r="D28" s="2" t="s"/>
       <x:c r="E28" s="3">
-        <x:v>45916.6825238773</x:v>
+        <x:v>45907.6650737269</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1841,16 +1803,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="C29" s="2" t="s">
+      <x:c r="D29" s="2" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6714037847</x:v>
+        <x:v>45907.7013503472</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1873,14 +1835,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="C30" s="2" t="s">
+      <x:c r="D30" s="2" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s"/>
       <x:c r="E30" s="3">
-        <x:v>45907.6650737269</x:v>
+        <x:v>45907.4201239931</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1912,7 +1876,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.7013503472</x:v>
+        <x:v>45909.4364569792</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1944,7 +1908,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4201239931</x:v>
+        <x:v>45907.4209305556</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1976,7 +1940,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.4364569792</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2008,7 +1972,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4209305556</x:v>
+        <x:v>45907.4194787384</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2040,7 +2004,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45907.4143820949</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2072,7 +2036,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4194787384</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2104,7 +2068,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4143820949</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2136,7 +2100,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45907.4200497338</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2168,7 +2132,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45907.6655503472</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2200,7 +2164,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4200497338</x:v>
+        <x:v>45907.4190850347</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2232,7 +2196,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6655503472</x:v>
+        <x:v>45907.4143132292</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2264,7 +2228,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.4190850347</x:v>
+        <x:v>45907.4199854514</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2296,7 +2260,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4143132292</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2328,7 +2292,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.4199854514</x:v>
+        <x:v>45907.6651647801</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2360,7 +2324,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45906.6647167014</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2392,7 +2356,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6651647801</x:v>
+        <x:v>45912.3188163194</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2424,7 +2388,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45906.6647167014</x:v>
+        <x:v>45907.665069213</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2452,11 +2416,9 @@
       <x:c r="C48" s="2" t="s">
         <x:v>141</x:v>
       </x:c>
-      <x:c r="D48" s="2" t="s">
-        <x:v>142</x:v>
-      </x:c>
+      <x:c r="D48" s="2" t="s"/>
       <x:c r="E48" s="3">
-        <x:v>45907.6822388542</x:v>
+        <x:v>45907.6661684375</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2479,16 +2441,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B49" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
         <x:v>143</x:v>
       </x:c>
-      <x:c r="C49" s="2" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="D49" s="2" t="s">
-        <x:v>145</x:v>
-      </x:c>
+      <x:c r="D49" s="2" t="s"/>
       <x:c r="E49" s="3">
-        <x:v>45912.3188163194</x:v>
+        <x:v>45926.4125992245</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2505,130 +2465,6 @@
       <x:c r="R49" s="2" t="s"/>
       <x:c r="S49" s="2" t="s"/>
       <x:c r="T49" s="2" t="s"/>
-    </x:row>
-    <x:row r="50" spans="1:20">
-      <x:c r="A50" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B50" s="2" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="C50" s="2" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="D50" s="2" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="E50" s="3">
-        <x:v>45907.665069213</x:v>
-      </x:c>
-      <x:c r="F50" s="2" t="s"/>
-      <x:c r="G50" s="2" t="s"/>
-      <x:c r="H50" s="2" t="s"/>
-      <x:c r="I50" s="2" t="s"/>
-      <x:c r="J50" s="2" t="s"/>
-      <x:c r="K50" s="2" t="s"/>
-      <x:c r="L50" s="2" t="s"/>
-      <x:c r="M50" s="2" t="s"/>
-      <x:c r="N50" s="2" t="s"/>
-      <x:c r="O50" s="2" t="s"/>
-      <x:c r="P50" s="2" t="s"/>
-      <x:c r="Q50" s="2" t="s"/>
-      <x:c r="R50" s="2" t="s"/>
-      <x:c r="S50" s="2" t="s"/>
-      <x:c r="T50" s="2" t="s"/>
-    </x:row>
-    <x:row r="51" spans="1:20">
-      <x:c r="A51" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B51" s="2" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="C51" s="2" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="D51" s="2" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="E51" s="3">
-        <x:v>45906.6647606134</x:v>
-      </x:c>
-      <x:c r="F51" s="2" t="s"/>
-      <x:c r="G51" s="2" t="s"/>
-      <x:c r="H51" s="2" t="s"/>
-      <x:c r="I51" s="2" t="s"/>
-      <x:c r="J51" s="2" t="s"/>
-      <x:c r="K51" s="2" t="s"/>
-      <x:c r="L51" s="2" t="s"/>
-      <x:c r="M51" s="2" t="s"/>
-      <x:c r="N51" s="2" t="s"/>
-      <x:c r="O51" s="2" t="s"/>
-      <x:c r="P51" s="2" t="s"/>
-      <x:c r="Q51" s="2" t="s"/>
-      <x:c r="R51" s="2" t="s"/>
-      <x:c r="S51" s="2" t="s"/>
-      <x:c r="T51" s="2" t="s"/>
-    </x:row>
-    <x:row r="52" spans="1:20">
-      <x:c r="A52" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B52" s="2" t="s">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="C52" s="2" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="D52" s="2" t="s"/>
-      <x:c r="E52" s="3">
-        <x:v>45907.6661684375</x:v>
-      </x:c>
-      <x:c r="F52" s="2" t="s"/>
-      <x:c r="G52" s="2" t="s"/>
-      <x:c r="H52" s="2" t="s"/>
-      <x:c r="I52" s="2" t="s"/>
-      <x:c r="J52" s="2" t="s"/>
-      <x:c r="K52" s="2" t="s"/>
-      <x:c r="L52" s="2" t="s"/>
-      <x:c r="M52" s="2" t="s"/>
-      <x:c r="N52" s="2" t="s"/>
-      <x:c r="O52" s="2" t="s"/>
-      <x:c r="P52" s="2" t="s"/>
-      <x:c r="Q52" s="2" t="s"/>
-      <x:c r="R52" s="2" t="s"/>
-      <x:c r="S52" s="2" t="s"/>
-      <x:c r="T52" s="2" t="s"/>
-    </x:row>
-    <x:row r="53" spans="1:20">
-      <x:c r="A53" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B53" s="2" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="C53" s="2" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="D53" s="2" t="s"/>
-      <x:c r="E53" s="3">
-        <x:v>45926.4125992245</x:v>
-      </x:c>
-      <x:c r="F53" s="2" t="s"/>
-      <x:c r="G53" s="2" t="s"/>
-      <x:c r="H53" s="2" t="s"/>
-      <x:c r="I53" s="2" t="s"/>
-      <x:c r="J53" s="2" t="s"/>
-      <x:c r="K53" s="2" t="s"/>
-      <x:c r="L53" s="2" t="s"/>
-      <x:c r="M53" s="2" t="s"/>
-      <x:c r="N53" s="2" t="s"/>
-      <x:c r="O53" s="2" t="s"/>
-      <x:c r="P53" s="2" t="s"/>
-      <x:c r="Q53" s="2" t="s"/>
-      <x:c r="R53" s="2" t="s"/>
-      <x:c r="S53" s="2" t="s"/>
-      <x:c r="T53" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS303_Lecture-35533.xlsx
+++ b/downloaded_files/CMPS303_Lecture-35533.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -448,6 +448,15 @@
   </x:si>
   <x:si>
     <x:t>يوسف محمد صلاح مصلحي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240175</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد عبدالرحمن عبدالعزيز السيد احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yousef Mohamed Abdelrahman Abdelaziz Elsayed Ahmed</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -563,7 +572,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -863,7 +872,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T49"/>
+  <x:dimension ref="A1:T50"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -952,7 +961,7 @@
       </x:c>
       <x:c r="D2" s="2" t="s"/>
       <x:c r="E2" s="3">
-        <x:v>45927.6184551736</x:v>
+        <x:v>45927.965468287</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -2465,6 +2474,38 @@
       <x:c r="R49" s="2" t="s"/>
       <x:c r="S49" s="2" t="s"/>
       <x:c r="T49" s="2" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:20">
+      <x:c r="A50" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="D50" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="E50" s="3">
+        <x:v>45928.0101290509</x:v>
+      </x:c>
+      <x:c r="F50" s="2" t="s"/>
+      <x:c r="G50" s="2" t="s"/>
+      <x:c r="H50" s="2" t="s"/>
+      <x:c r="I50" s="2" t="s"/>
+      <x:c r="J50" s="2" t="s"/>
+      <x:c r="K50" s="2" t="s"/>
+      <x:c r="L50" s="2" t="s"/>
+      <x:c r="M50" s="2" t="s"/>
+      <x:c r="N50" s="2" t="s"/>
+      <x:c r="O50" s="2" t="s"/>
+      <x:c r="P50" s="2" t="s"/>
+      <x:c r="Q50" s="2" t="s"/>
+      <x:c r="R50" s="2" t="s"/>
+      <x:c r="S50" s="2" t="s"/>
+      <x:c r="T50" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS303_Lecture-35533.xlsx
+++ b/downloaded_files/CMPS303_Lecture-35533.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -190,15 +190,6 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Mohammed Shawki  Abdelsalam Mohammed Attman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4240027</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن محمد مصباح عبدالسلام عبده</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Mohamed Misbah abdelsalam Abdou</x:t>
   </x:si>
   <x:si>
     <x:t>1220067</x:t>
@@ -572,7 +563,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -872,7 +863,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T50"/>
+  <x:dimension ref="A1:T49"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1537,7 +1528,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45920.1213704861</x:v>
+        <x:v>45906.6656493403</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1569,7 +1560,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6656493403</x:v>
+        <x:v>45907.6656820602</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1601,7 +1592,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6656820602</x:v>
+        <x:v>45907.4197314468</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1633,7 +1624,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4197314468</x:v>
+        <x:v>45907.6664400463</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1661,11 +1652,9 @@
       <x:c r="C24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
+      <x:c r="D24" s="2" t="s"/>
       <x:c r="E24" s="3">
-        <x:v>45907.6664400463</x:v>
+        <x:v>45920.0753043634</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1688,14 +1677,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45920.0753043634</x:v>
+        <x:v>45907.6701496875</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1727,7 +1718,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6701496875</x:v>
+        <x:v>45907.6714037847</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1755,11 +1746,9 @@
       <x:c r="C27" s="2" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
+      <x:c r="D27" s="2" t="s"/>
       <x:c r="E27" s="3">
-        <x:v>45907.6714037847</x:v>
+        <x:v>45907.6650737269</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1782,14 +1771,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="C28" s="2" t="s">
+      <x:c r="D28" s="2" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s"/>
       <x:c r="E28" s="3">
-        <x:v>45907.6650737269</x:v>
+        <x:v>45907.7013503472</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1821,7 +1812,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.7013503472</x:v>
+        <x:v>45907.4201239931</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1853,7 +1844,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4201239931</x:v>
+        <x:v>45909.4364569792</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1885,7 +1876,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.4364569792</x:v>
+        <x:v>45907.4209305556</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1917,7 +1908,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4209305556</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1949,7 +1940,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45907.4194787384</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1981,7 +1972,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4194787384</x:v>
+        <x:v>45907.4143820949</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2013,7 +2004,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4143820949</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2045,7 +2036,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2077,7 +2068,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45907.4200497338</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2109,7 +2100,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4200497338</x:v>
+        <x:v>45907.6655503472</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2141,7 +2132,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6655503472</x:v>
+        <x:v>45907.4190850347</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2173,7 +2164,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4190850347</x:v>
+        <x:v>45907.4143132292</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2205,7 +2196,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.4143132292</x:v>
+        <x:v>45907.4199854514</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2237,7 +2228,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.4199854514</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2269,7 +2260,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45907.6651647801</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2301,7 +2292,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6651647801</x:v>
+        <x:v>45906.6647167014</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2333,7 +2324,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.6647167014</x:v>
+        <x:v>45912.3188163194</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2365,7 +2356,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45912.3188163194</x:v>
+        <x:v>45907.665069213</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2393,11 +2384,9 @@
       <x:c r="C47" s="2" t="s">
         <x:v>138</x:v>
       </x:c>
-      <x:c r="D47" s="2" t="s">
-        <x:v>139</x:v>
-      </x:c>
+      <x:c r="D47" s="2" t="s"/>
       <x:c r="E47" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45907.6661684375</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2420,14 +2409,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B48" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
         <x:v>140</x:v>
-      </x:c>
-      <x:c r="C48" s="2" t="s">
-        <x:v>141</x:v>
       </x:c>
       <x:c r="D48" s="2" t="s"/>
       <x:c r="E48" s="3">
-        <x:v>45907.6661684375</x:v>
+        <x:v>45926.4125992245</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2450,14 +2439,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B49" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
         <x:v>142</x:v>
       </x:c>
-      <x:c r="C49" s="2" t="s">
+      <x:c r="D49" s="2" t="s">
         <x:v>143</x:v>
       </x:c>
-      <x:c r="D49" s="2" t="s"/>
       <x:c r="E49" s="3">
-        <x:v>45926.4125992245</x:v>
+        <x:v>45928.0101290509</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2474,38 +2465,6 @@
       <x:c r="R49" s="2" t="s"/>
       <x:c r="S49" s="2" t="s"/>
       <x:c r="T49" s="2" t="s"/>
-    </x:row>
-    <x:row r="50" spans="1:20">
-      <x:c r="A50" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B50" s="2" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="C50" s="2" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="D50" s="2" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="E50" s="3">
-        <x:v>45928.0101290509</x:v>
-      </x:c>
-      <x:c r="F50" s="2" t="s"/>
-      <x:c r="G50" s="2" t="s"/>
-      <x:c r="H50" s="2" t="s"/>
-      <x:c r="I50" s="2" t="s"/>
-      <x:c r="J50" s="2" t="s"/>
-      <x:c r="K50" s="2" t="s"/>
-      <x:c r="L50" s="2" t="s"/>
-      <x:c r="M50" s="2" t="s"/>
-      <x:c r="N50" s="2" t="s"/>
-      <x:c r="O50" s="2" t="s"/>
-      <x:c r="P50" s="2" t="s"/>
-      <x:c r="Q50" s="2" t="s"/>
-      <x:c r="R50" s="2" t="s"/>
-      <x:c r="S50" s="2" t="s"/>
-      <x:c r="T50" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS303_Lecture-35533.xlsx
+++ b/downloaded_files/CMPS303_Lecture-35533.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,12 +33,6 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>1240191</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد بهجت سيد محمدعبدالفتاح</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240005</x:t>
   </x:si>
   <x:si>
@@ -174,6 +168,15 @@
     <x:t>Abdelrahman Ali ElSayed Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1240178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الله عمرو شفيق فريد احمد خفاجى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdallah Khafagy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240085</x:t>
   </x:si>
   <x:si>
@@ -258,15 +261,6 @@
     <x:t>عمرو هاشم سعيد عبداللطيف</x:t>
   </x:si>
   <x:si>
-    <x:t>1240118</x:t>
-  </x:si>
-  <x:si>
-    <x:t>فراس شريف مصطفى ابراهيم حلابه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Feras Sherif Moustafa Ibrahim</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230227</x:t>
   </x:si>
   <x:si>
@@ -433,12 +427,6 @@
   </x:si>
   <x:si>
     <x:t>يوسف محمد بدر الدين حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4240061</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف محمد صلاح مصلحي</x:t>
   </x:si>
   <x:si>
     <x:t>1240175</x:t>
@@ -563,7 +551,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -863,7 +851,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T49"/>
+  <x:dimension ref="A1:T47"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -950,9 +938,11 @@
       <x:c r="C2" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D2" s="2" t="s"/>
+      <x:c r="D2" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
       <x:c r="E2" s="3">
-        <x:v>45927.965468287</x:v>
+        <x:v>45927.4153984954</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -975,16 +965,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45927.4153984954</x:v>
+        <x:v>45907.41445</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -1007,16 +997,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.41445</x:v>
+        <x:v>45914.5686462963</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1039,16 +1029,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45914.5686462963</x:v>
+        <x:v>45907.4202734144</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1071,16 +1061,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4202734144</x:v>
+        <x:v>45907.4210927431</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1103,16 +1093,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4210927431</x:v>
+        <x:v>45907.4292636921</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1135,16 +1125,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4292636921</x:v>
+        <x:v>45916.0178555556</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1167,16 +1157,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45916.0178555556</x:v>
+        <x:v>45907.4146253472</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1199,16 +1189,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4146253472</x:v>
+        <x:v>45909.6483199074</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1231,16 +1221,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.6483199074</x:v>
+        <x:v>45907.6750560995</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1263,16 +1253,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6750560995</x:v>
+        <x:v>45906.6651428241</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1295,16 +1285,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6651428241</x:v>
+        <x:v>45907.4202421296</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1327,16 +1317,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4202421296</x:v>
+        <x:v>45907.4201238079</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1359,16 +1349,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4201238079</x:v>
+        <x:v>45907.4200563657</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1391,16 +1381,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4200563657</x:v>
+        <x:v>45907.4158237616</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1423,16 +1413,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4158237616</x:v>
+        <x:v>45928.8757069792</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1455,13 +1445,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
         <x:v>45907.6648109143</x:v>
@@ -1487,13 +1477,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
         <x:v>45907.419990162</x:v>
@@ -1519,13 +1509,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
         <x:v>45906.6656493403</x:v>
@@ -1551,13 +1541,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
         <x:v>45907.6656820602</x:v>
@@ -1583,13 +1573,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
         <x:v>45907.4197314468</x:v>
@@ -1615,13 +1605,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
         <x:v>45907.6664400463</x:v>
@@ -1647,10 +1637,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s"/>
       <x:c r="E24" s="3">
@@ -1677,13 +1667,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
         <x:v>45907.6701496875</x:v>
@@ -1709,13 +1699,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
         <x:v>45907.6714037847</x:v>
@@ -1741,10 +1731,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s"/>
       <x:c r="E27" s="3">
@@ -1771,16 +1761,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.7013503472</x:v>
+        <x:v>45907.4201239931</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1803,16 +1793,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4201239931</x:v>
+        <x:v>45909.4364569792</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1835,16 +1825,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.4364569792</x:v>
+        <x:v>45907.4209305556</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1867,16 +1857,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D31" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4209305556</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1899,16 +1889,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D32" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45907.4194787384</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1931,16 +1921,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D33" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4194787384</x:v>
+        <x:v>45907.4143820949</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1963,16 +1953,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D34" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4143820949</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1995,16 +1985,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D35" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2027,16 +2017,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D36" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45907.4200497338</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2059,16 +2049,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D37" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4200497338</x:v>
+        <x:v>45907.6655503472</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2091,16 +2081,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D38" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6655503472</x:v>
+        <x:v>45907.4190850347</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2123,16 +2113,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D39" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4190850347</x:v>
+        <x:v>45907.4143132292</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2155,16 +2145,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D40" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4143132292</x:v>
+        <x:v>45907.4199854514</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2187,16 +2177,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D41" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.4199854514</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2219,16 +2209,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D42" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45907.6651647801</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2251,16 +2241,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C43" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D43" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6651647801</x:v>
+        <x:v>45906.6647167014</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2283,16 +2273,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C44" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D44" s="2" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.6647167014</x:v>
+        <x:v>45912.3188163194</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2315,16 +2305,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C45" s="2" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D45" s="2" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45912.3188163194</x:v>
+        <x:v>45907.665069213</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2347,16 +2337,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C46" s="2" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="D46" s="2" t="s">
         <x:v>136</x:v>
       </x:c>
+      <x:c r="D46" s="2" t="s"/>
       <x:c r="E46" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45907.6661684375</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2384,9 +2372,11 @@
       <x:c r="C47" s="2" t="s">
         <x:v>138</x:v>
       </x:c>
-      <x:c r="D47" s="2" t="s"/>
+      <x:c r="D47" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6661684375</x:v>
+        <x:v>45928.0101290509</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2403,68 +2393,6 @@
       <x:c r="R47" s="2" t="s"/>
       <x:c r="S47" s="2" t="s"/>
       <x:c r="T47" s="2" t="s"/>
-    </x:row>
-    <x:row r="48" spans="1:20">
-      <x:c r="A48" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B48" s="2" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="C48" s="2" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="D48" s="2" t="s"/>
-      <x:c r="E48" s="3">
-        <x:v>45926.4125992245</x:v>
-      </x:c>
-      <x:c r="F48" s="2" t="s"/>
-      <x:c r="G48" s="2" t="s"/>
-      <x:c r="H48" s="2" t="s"/>
-      <x:c r="I48" s="2" t="s"/>
-      <x:c r="J48" s="2" t="s"/>
-      <x:c r="K48" s="2" t="s"/>
-      <x:c r="L48" s="2" t="s"/>
-      <x:c r="M48" s="2" t="s"/>
-      <x:c r="N48" s="2" t="s"/>
-      <x:c r="O48" s="2" t="s"/>
-      <x:c r="P48" s="2" t="s"/>
-      <x:c r="Q48" s="2" t="s"/>
-      <x:c r="R48" s="2" t="s"/>
-      <x:c r="S48" s="2" t="s"/>
-      <x:c r="T48" s="2" t="s"/>
-    </x:row>
-    <x:row r="49" spans="1:20">
-      <x:c r="A49" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B49" s="2" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="C49" s="2" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="D49" s="2" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="E49" s="3">
-        <x:v>45928.0101290509</x:v>
-      </x:c>
-      <x:c r="F49" s="2" t="s"/>
-      <x:c r="G49" s="2" t="s"/>
-      <x:c r="H49" s="2" t="s"/>
-      <x:c r="I49" s="2" t="s"/>
-      <x:c r="J49" s="2" t="s"/>
-      <x:c r="K49" s="2" t="s"/>
-      <x:c r="L49" s="2" t="s"/>
-      <x:c r="M49" s="2" t="s"/>
-      <x:c r="N49" s="2" t="s"/>
-      <x:c r="O49" s="2" t="s"/>
-      <x:c r="P49" s="2" t="s"/>
-      <x:c r="Q49" s="2" t="s"/>
-      <x:c r="R49" s="2" t="s"/>
-      <x:c r="S49" s="2" t="s"/>
-      <x:c r="T49" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS303_Lecture-35533.xlsx
+++ b/downloaded_files/CMPS303_Lecture-35533.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -403,6 +403,15 @@
   </x:si>
   <x:si>
     <x:t>Yahia Galal Ezzat Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230287</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يحيى هلال عبدالسلام الانور سعد محمد الحلو</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yahia helal</x:t>
   </x:si>
   <x:si>
     <x:t>1240393</x:t>
@@ -551,7 +560,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -851,7 +860,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T47"/>
+  <x:dimension ref="A1:T48"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2282,7 +2291,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45912.3188163194</x:v>
+        <x:v>45929.5866128819</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2314,7 +2323,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45912.3188163194</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2342,9 +2351,11 @@
       <x:c r="C46" s="2" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="D46" s="2" t="s"/>
+      <x:c r="D46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6661684375</x:v>
+        <x:v>45907.665069213</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2367,16 +2378,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B47" s="2" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C47" s="2" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="D47" s="2" t="s">
         <x:v>139</x:v>
       </x:c>
+      <x:c r="D47" s="2" t="s"/>
       <x:c r="E47" s="3">
-        <x:v>45928.0101290509</x:v>
+        <x:v>45907.6661684375</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2393,6 +2402,38 @@
       <x:c r="R47" s="2" t="s"/>
       <x:c r="S47" s="2" t="s"/>
       <x:c r="T47" s="2" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20">
+      <x:c r="A48" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D48" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="E48" s="3">
+        <x:v>45928.0101290509</x:v>
+      </x:c>
+      <x:c r="F48" s="2" t="s"/>
+      <x:c r="G48" s="2" t="s"/>
+      <x:c r="H48" s="2" t="s"/>
+      <x:c r="I48" s="2" t="s"/>
+      <x:c r="J48" s="2" t="s"/>
+      <x:c r="K48" s="2" t="s"/>
+      <x:c r="L48" s="2" t="s"/>
+      <x:c r="M48" s="2" t="s"/>
+      <x:c r="N48" s="2" t="s"/>
+      <x:c r="O48" s="2" t="s"/>
+      <x:c r="P48" s="2" t="s"/>
+      <x:c r="Q48" s="2" t="s"/>
+      <x:c r="R48" s="2" t="s"/>
+      <x:c r="S48" s="2" t="s"/>
+      <x:c r="T48" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS303_Lecture-35533.xlsx
+++ b/downloaded_files/CMPS303_Lecture-35533.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,15 +85,6 @@
   </x:si>
   <x:si>
     <x:t>Basel ahmed mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230176</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حازم ايهاب فاروق فاوي مصطفى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hazem ehab farouk fawy</x:t>
   </x:si>
   <x:si>
     <x:t>1230177</x:t>
@@ -560,7 +551,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -860,7 +851,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T48"/>
+  <x:dimension ref="A1:T47"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1143,7 +1134,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45916.0178555556</x:v>
+        <x:v>45907.4146253472</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1175,7 +1166,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4146253472</x:v>
+        <x:v>45909.6483199074</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1207,7 +1198,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.6483199074</x:v>
+        <x:v>45907.6750560995</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1239,7 +1230,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6750560995</x:v>
+        <x:v>45906.6651428241</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1271,7 +1262,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6651428241</x:v>
+        <x:v>45907.4202421296</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1303,7 +1294,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4202421296</x:v>
+        <x:v>45907.4201238079</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1335,7 +1326,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4201238079</x:v>
+        <x:v>45907.4200563657</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1367,7 +1358,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4200563657</x:v>
+        <x:v>45907.4158237616</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1399,7 +1390,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4158237616</x:v>
+        <x:v>45928.8757069792</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1431,7 +1422,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45928.8757069792</x:v>
+        <x:v>45907.6648109143</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1463,7 +1454,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6648109143</x:v>
+        <x:v>45907.419990162</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1495,7 +1486,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.419990162</x:v>
+        <x:v>45906.6656493403</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1527,7 +1518,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6656493403</x:v>
+        <x:v>45907.6656820602</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1559,7 +1550,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6656820602</x:v>
+        <x:v>45907.4197314468</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1591,7 +1582,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4197314468</x:v>
+        <x:v>45907.6664400463</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1619,11 +1610,9 @@
       <x:c r="C23" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
+      <x:c r="D23" s="2" t="s"/>
       <x:c r="E23" s="3">
-        <x:v>45907.6664400463</x:v>
+        <x:v>45920.0753043634</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1646,14 +1635,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="D24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s"/>
       <x:c r="E24" s="3">
-        <x:v>45920.0753043634</x:v>
+        <x:v>45907.6701496875</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1685,7 +1676,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6701496875</x:v>
+        <x:v>45907.6714037847</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1713,11 +1704,9 @@
       <x:c r="C26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
+      <x:c r="D26" s="2" t="s"/>
       <x:c r="E26" s="3">
-        <x:v>45907.6714037847</x:v>
+        <x:v>45907.6650737269</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1740,14 +1729,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
+      <x:c r="D27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s"/>
       <x:c r="E27" s="3">
-        <x:v>45907.6650737269</x:v>
+        <x:v>45907.4201239931</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1779,7 +1770,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4201239931</x:v>
+        <x:v>45909.4364569792</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1811,7 +1802,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.4364569792</x:v>
+        <x:v>45907.4209305556</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1843,7 +1834,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4209305556</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1875,7 +1866,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45907.4194787384</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1907,7 +1898,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4194787384</x:v>
+        <x:v>45907.4143820949</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1939,7 +1930,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4143820949</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1971,7 +1962,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2003,7 +1994,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45907.4200497338</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2035,7 +2026,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4200497338</x:v>
+        <x:v>45907.6655503472</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2067,7 +2058,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6655503472</x:v>
+        <x:v>45907.4190850347</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2099,7 +2090,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4190850347</x:v>
+        <x:v>45907.4143132292</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2131,7 +2122,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4143132292</x:v>
+        <x:v>45907.4199854514</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2163,7 +2154,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4199854514</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2195,7 +2186,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45907.6651647801</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2227,7 +2218,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6651647801</x:v>
+        <x:v>45906.6647167014</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2259,7 +2250,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6647167014</x:v>
+        <x:v>45929.5866128819</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2291,7 +2282,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45929.5866128819</x:v>
+        <x:v>45912.3188163194</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2323,7 +2314,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45912.3188163194</x:v>
+        <x:v>45907.665069213</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2351,11 +2342,9 @@
       <x:c r="C46" s="2" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="D46" s="2" t="s">
-        <x:v>137</x:v>
-      </x:c>
+      <x:c r="D46" s="2" t="s"/>
       <x:c r="E46" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45907.6661684375</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2378,14 +2367,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B47" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
         <x:v>138</x:v>
       </x:c>
-      <x:c r="C47" s="2" t="s">
+      <x:c r="D47" s="2" t="s">
         <x:v>139</x:v>
       </x:c>
-      <x:c r="D47" s="2" t="s"/>
       <x:c r="E47" s="3">
-        <x:v>45907.6661684375</x:v>
+        <x:v>45928.0101290509</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2402,38 +2393,6 @@
       <x:c r="R47" s="2" t="s"/>
       <x:c r="S47" s="2" t="s"/>
       <x:c r="T47" s="2" t="s"/>
-    </x:row>
-    <x:row r="48" spans="1:20">
-      <x:c r="A48" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B48" s="2" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="C48" s="2" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="D48" s="2" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="E48" s="3">
-        <x:v>45928.0101290509</x:v>
-      </x:c>
-      <x:c r="F48" s="2" t="s"/>
-      <x:c r="G48" s="2" t="s"/>
-      <x:c r="H48" s="2" t="s"/>
-      <x:c r="I48" s="2" t="s"/>
-      <x:c r="J48" s="2" t="s"/>
-      <x:c r="K48" s="2" t="s"/>
-      <x:c r="L48" s="2" t="s"/>
-      <x:c r="M48" s="2" t="s"/>
-      <x:c r="N48" s="2" t="s"/>
-      <x:c r="O48" s="2" t="s"/>
-      <x:c r="P48" s="2" t="s"/>
-      <x:c r="Q48" s="2" t="s"/>
-      <x:c r="R48" s="2" t="s"/>
-      <x:c r="S48" s="2" t="s"/>
-      <x:c r="T48" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS303_Lecture-35533.xlsx
+++ b/downloaded_files/CMPS303_Lecture-35533.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -304,15 +304,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Magdy Fouad Abdul Elaty</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240185</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مروان محمد عبدالعاطي سيد محمد خليل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marwan Mohamed Abdel Aty Sayed</x:t>
   </x:si>
   <x:si>
     <x:t>1230255</x:t>
@@ -551,7 +542,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -851,7 +842,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T47"/>
+  <x:dimension ref="A1:T46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1930,7 +1921,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1962,7 +1953,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45907.4200497338</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1994,7 +1985,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4200497338</x:v>
+        <x:v>45907.6655503472</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2026,7 +2017,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6655503472</x:v>
+        <x:v>45907.4190850347</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2058,7 +2049,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4190850347</x:v>
+        <x:v>45907.4143132292</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2090,7 +2081,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4143132292</x:v>
+        <x:v>45907.4199854514</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2122,7 +2113,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4199854514</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2154,7 +2145,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45907.6651647801</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2186,7 +2177,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6651647801</x:v>
+        <x:v>45906.6647167014</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2218,7 +2209,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.6647167014</x:v>
+        <x:v>45929.5866128819</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2250,7 +2241,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45929.5866128819</x:v>
+        <x:v>45912.3188163194</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2282,7 +2273,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45912.3188163194</x:v>
+        <x:v>45907.665069213</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2310,11 +2301,9 @@
       <x:c r="C45" s="2" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="D45" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
+      <x:c r="D45" s="2" t="s"/>
       <x:c r="E45" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45907.6661684375</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2337,14 +2326,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
         <x:v>135</x:v>
       </x:c>
-      <x:c r="C46" s="2" t="s">
+      <x:c r="D46" s="2" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="D46" s="2" t="s"/>
       <x:c r="E46" s="3">
-        <x:v>45907.6661684375</x:v>
+        <x:v>45928.0101290509</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2361,38 +2352,6 @@
       <x:c r="R46" s="2" t="s"/>
       <x:c r="S46" s="2" t="s"/>
       <x:c r="T46" s="2" t="s"/>
-    </x:row>
-    <x:row r="47" spans="1:20">
-      <x:c r="A47" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B47" s="2" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="C47" s="2" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="D47" s="2" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="E47" s="3">
-        <x:v>45928.0101290509</x:v>
-      </x:c>
-      <x:c r="F47" s="2" t="s"/>
-      <x:c r="G47" s="2" t="s"/>
-      <x:c r="H47" s="2" t="s"/>
-      <x:c r="I47" s="2" t="s"/>
-      <x:c r="J47" s="2" t="s"/>
-      <x:c r="K47" s="2" t="s"/>
-      <x:c r="L47" s="2" t="s"/>
-      <x:c r="M47" s="2" t="s"/>
-      <x:c r="N47" s="2" t="s"/>
-      <x:c r="O47" s="2" t="s"/>
-      <x:c r="P47" s="2" t="s"/>
-      <x:c r="Q47" s="2" t="s"/>
-      <x:c r="R47" s="2" t="s"/>
-      <x:c r="S47" s="2" t="s"/>
-      <x:c r="T47" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS303_Lecture-35533.xlsx
+++ b/downloaded_files/CMPS303_Lecture-35533.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -48,7 +48,7 @@
     <x:t>احمد يحى سعد السيد نافع</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Yehya Saad Nafea</x:t>
+    <x:t>Ahmed Yehya Saad Elsayed Nafea</x:t>
   </x:si>
   <x:si>
     <x:t>1230019</x:t>
@@ -394,15 +394,6 @@
   </x:si>
   <x:si>
     <x:t>yahia helal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240393</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف احمد سعيد عبدالفتاح احمد الليثي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Ahmed Saeed Abdelfatah</x:t>
   </x:si>
   <x:si>
     <x:t>1230288</x:t>
@@ -542,7 +533,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -842,7 +833,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T46"/>
+  <x:dimension ref="A1:T45"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2241,7 +2232,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45912.3188163194</x:v>
+        <x:v>45907.665069213</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2269,11 +2260,9 @@
       <x:c r="C44" s="2" t="s">
         <x:v>130</x:v>
       </x:c>
-      <x:c r="D44" s="2" t="s">
-        <x:v>131</x:v>
-      </x:c>
+      <x:c r="D44" s="2" t="s"/>
       <x:c r="E44" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45907.6661684375</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2296,14 +2285,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="C45" s="2" t="s">
+      <x:c r="D45" s="2" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="D45" s="2" t="s"/>
       <x:c r="E45" s="3">
-        <x:v>45907.6661684375</x:v>
+        <x:v>45928.0101290509</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2320,38 +2311,6 @@
       <x:c r="R45" s="2" t="s"/>
       <x:c r="S45" s="2" t="s"/>
       <x:c r="T45" s="2" t="s"/>
-    </x:row>
-    <x:row r="46" spans="1:20">
-      <x:c r="A46" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B46" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="C46" s="2" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="D46" s="2" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E46" s="3">
-        <x:v>45928.0101290509</x:v>
-      </x:c>
-      <x:c r="F46" s="2" t="s"/>
-      <x:c r="G46" s="2" t="s"/>
-      <x:c r="H46" s="2" t="s"/>
-      <x:c r="I46" s="2" t="s"/>
-      <x:c r="J46" s="2" t="s"/>
-      <x:c r="K46" s="2" t="s"/>
-      <x:c r="L46" s="2" t="s"/>
-      <x:c r="M46" s="2" t="s"/>
-      <x:c r="N46" s="2" t="s"/>
-      <x:c r="O46" s="2" t="s"/>
-      <x:c r="P46" s="2" t="s"/>
-      <x:c r="Q46" s="2" t="s"/>
-      <x:c r="R46" s="2" t="s"/>
-      <x:c r="S46" s="2" t="s"/>
-      <x:c r="T46" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS303_Lecture-35533.xlsx
+++ b/downloaded_files/CMPS303_Lecture-35533.xlsx
@@ -156,7 +156,7 @@
     <x:t>عبد الرحمن على السيد محمد السيد الحديدى</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdelrahman Ali ElSayed Mohamed</x:t>
+    <x:t>Abdul Rahman Ali Elsayed Muhammad Elsayed Alhadidi</x:t>
   </x:si>
   <x:si>
     <x:t>1240178</x:t>
@@ -294,7 +294,7 @@
     <x:t>محمد عمرو ابراهيم المصري</x:t>
   </x:si>
   <x:si>
-    <x:t>mohamed amr ebrahim elmasry</x:t>
+    <x:t>Mohamed Amr Ibrahim Elmasry</x:t>
   </x:si>
   <x:si>
     <x:t>1220021</x:t>
@@ -330,7 +330,7 @@
     <x:t>مريم رامى محمد سعيد زكى رضوان</x:t>
   </x:si>
   <x:si>
-    <x:t>MARIM</x:t>
+    <x:t>Mariam Ramy Mohamed Said Zaki Radwan</x:t>
   </x:si>
   <x:si>
     <x:t>1230266</x:t>
@@ -348,7 +348,7 @@
     <x:t>مهند محمد فتحى محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohaned Mohammed fathy</x:t>
+    <x:t xml:space="preserve"> Mohaned Mohammed fathy Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>1230271</x:t>
